--- a/sagol_project/04 - correlations/colored_results/comparing.xlsx
+++ b/sagol_project/04 - correlations/colored_results/comparing.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ליאור\Sagol_Reut_Naim_Project\sagol_project\04 - correlations\colored_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{857DFE6E-9DF2-4878-B9C2-091B2B550654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCFFBD5-7294-43DD-9B31-F9F5341D2A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAC4EB0E-1DA6-483C-8E6F-EA714A6E14A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="2" r:id="rId1"/>
+    <sheet name="origin" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">origin!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">summary!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>ARI_6_P</t>
   </si>
@@ -222,13 +227,25 @@
   </si>
   <si>
     <t>pctOffscreen.a_a</t>
+  </si>
+  <si>
+    <t>ARI_6_P2</t>
+  </si>
+  <si>
+    <t>SCARED_P3</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Greater anxiety is associated with increased fixations on the mouth and reduced attention to the eyes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +278,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +408,134 @@
         <bgColor rgb="FF16AAAA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF02AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF16AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF04AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF11AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF05AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF03AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF09AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF07AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0BAAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0DAAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF12AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF01AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF09AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF0CAAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF0DAAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF0AAAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF01AAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF10AAAA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -386,11 +543,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -416,11 +684,209 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -431,6 +897,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47603EAD-4F07-485D-8BDD-D8213AF775EB}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:F18" xr:uid="{47603EAD-4F07-485D-8BDD-D8213AF775EB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F18">
+    <sortCondition ref="D1:D18"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{51DD47E8-2062-4E37-80B5-2F6DD310787A}" name="Feature" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{AD5E388C-8732-487F-8693-8ECF55F1D948}" name="ARI_6_P" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CE844878-A641-4AE8-8FB6-312C18F5F50B}" name="SCARED_P" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{986E0538-7ED1-4A19-B43E-51425A764529}" name="ARI_6_P2" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C5A2EE4F-93A0-4DCF-B389-D40930423B05}" name="SCARED_P3" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{7E8B04CB-2D85-4EA9-A9E7-7F3D0273C106}" name="notes" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,11 +1233,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B578667A-2680-49D3-B6F8-07D5B250D589}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.58203125" customWidth="1"/>
+    <col min="6" max="6" width="82.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0.4474535361402916</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
+        <v>1.4268712578451E-3</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23">
+        <v>0.44745353614029171</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>1.4268712578451E-3</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.38472310633835538</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.28405431137307019</v>
+      </c>
+      <c r="D4" s="47">
+        <v>1.0290865557569501E-2</v>
+      </c>
+      <c r="E4" s="64">
+        <v>8.70135228415687E-2</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.362600398731179</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.29813747807272051</v>
+      </c>
+      <c r="D5" s="48">
+        <v>1.7737420230970299E-2</v>
+      </c>
+      <c r="E5" s="63">
+        <v>6.7169170722953697E-2</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="28">
+        <v>-0.3522960440065947</v>
+      </c>
+      <c r="C6" s="28">
+        <v>-0.37700393844585628</v>
+      </c>
+      <c r="D6" s="49">
+        <v>2.21877356247113E-2</v>
+      </c>
+      <c r="E6" s="57">
+        <v>1.2448974568196301E-2</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="29">
+        <v>0.33013541275526698</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.24438648708217151</v>
+      </c>
+      <c r="D7" s="50">
+        <v>3.6065399172333999E-2</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.16678582915720319</v>
+      </c>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.32747921348827608</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.3370484429092751</v>
+      </c>
+      <c r="D8" s="51">
+        <v>3.7863208924659199E-2</v>
+      </c>
+      <c r="E8" s="58">
+        <v>3.1021653113081901E-2</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0.3208830621259981</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.35778599547286649</v>
+      </c>
+      <c r="D9" s="52">
+        <v>4.3310046009072803E-2</v>
+      </c>
+      <c r="E9" s="49">
+        <v>1.9779123534089602E-2</v>
+      </c>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.31257575297444329</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.35894740071726489</v>
+      </c>
+      <c r="D10" s="53">
+        <v>5.1059801522941699E-2</v>
+      </c>
+      <c r="E10" s="48">
+        <v>1.93090988303498E-2</v>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="28">
+        <v>-0.29306352033085908</v>
+      </c>
+      <c r="C11" s="28">
+        <v>-0.40033414379574189</v>
+      </c>
+      <c r="D11" s="54">
+        <v>7.3669968135166103E-2</v>
+      </c>
+      <c r="E11" s="55">
+        <v>6.9151548725863996E-3</v>
+      </c>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="30">
+        <v>0.26982593286162881</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0.31491656386503608</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0.1123547409265663</v>
+      </c>
+      <c r="E12" s="60">
+        <v>4.8955247764224101E-2</v>
+      </c>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23">
+        <v>-0.26237535719668309</v>
+      </c>
+      <c r="C13" s="23">
+        <v>-0.39812795820732633</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.12640111374424051</v>
+      </c>
+      <c r="E13" s="56">
+        <v>7.2956532922877999E-3</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="30">
+        <v>-0.24455018157045369</v>
+      </c>
+      <c r="C14" s="30">
+        <v>-0.30997755993737669</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0.1667755620293975</v>
+      </c>
+      <c r="E14" s="61">
+        <v>5.3723290982506902E-2</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="30">
+        <v>-0.2250771642525087</v>
+      </c>
+      <c r="C15" s="30">
+        <v>-0.32501820120360569</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0.21353043464389801</v>
+      </c>
+      <c r="E15" s="59">
+        <v>3.9700775402616198E-2</v>
+      </c>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="31">
+        <v>-0.20942554051778159</v>
+      </c>
+      <c r="C16" s="31">
+        <v>-0.39551611728149211</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0.25784975272580968</v>
+      </c>
+      <c r="E16" s="65">
+        <v>7.8186434898968992E-3</v>
+      </c>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30">
+        <v>-6.9241075036134803E-2</v>
+      </c>
+      <c r="C17" s="30">
+        <v>-0.29382936376435198</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0.762588368906856</v>
+      </c>
+      <c r="E17" s="62">
+        <v>6.6543060469132095E-2</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="45">
+        <v>5.48044590724081E-2</v>
+      </c>
+      <c r="C18" s="45">
+        <v>0.25638425818193089</v>
+      </c>
+      <c r="D18" s="45">
+        <v>0.81507762335136802</v>
+      </c>
+      <c r="E18" s="45">
+        <v>0.1391351994731275</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B20D8A-57A7-48F7-BFD3-87485132E59A}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1799,6 +2639,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{A1B20D8A-57A7-48F7-BFD3-87485132E59A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sagol_project/04 - correlations/colored_results/comparing.xlsx
+++ b/sagol_project/04 - correlations/colored_results/comparing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ליאור\Sagol_Reut_Naim_Project\sagol_project\04 - correlations\colored_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCFFBD5-7294-43DD-9B31-F9F5341D2A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C036580-CE90-4440-9923-518E22CFF611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAC4EB0E-1DA6-483C-8E6F-EA714A6E14A9}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -687,14 +687,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -723,7 +720,7 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -739,11 +736,62 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <font>
-        <b val="0"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -770,11 +818,14 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -784,35 +835,10 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -829,12 +855,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -854,36 +881,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -900,18 +897,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47603EAD-4F07-485D-8BDD-D8213AF775EB}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47603EAD-4F07-485D-8BDD-D8213AF775EB}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:F18" xr:uid="{47603EAD-4F07-485D-8BDD-D8213AF775EB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F18">
     <sortCondition ref="D1:D18"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{51DD47E8-2062-4E37-80B5-2F6DD310787A}" name="Feature" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{AD5E388C-8732-487F-8693-8ECF55F1D948}" name="ARI_6_P" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{CE844878-A641-4AE8-8FB6-312C18F5F50B}" name="SCARED_P" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{986E0538-7ED1-4A19-B43E-51425A764529}" name="ARI_6_P2" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{C5A2EE4F-93A0-4DCF-B389-D40930423B05}" name="SCARED_P3" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7E8B04CB-2D85-4EA9-A9E7-7F3D0273C106}" name="notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{51DD47E8-2062-4E37-80B5-2F6DD310787A}" name="Feature" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AD5E388C-8732-487F-8693-8ECF55F1D948}" name="ARI_6_P" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CE844878-A641-4AE8-8FB6-312C18F5F50B}" name="SCARED_P" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{986E0538-7ED1-4A19-B43E-51425A764529}" name="ARI_6_P2" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C5A2EE4F-93A0-4DCF-B389-D40930423B05}" name="SCARED_P3" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{7E8B04CB-2D85-4EA9-A9E7-7F3D0273C106}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1237,7 +1234,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1251,27 +1248,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="23">
@@ -1289,7 +1286,7 @@
       <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="23">
@@ -1307,169 +1304,169 @@
       <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>0.38472310633835538</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>0.28405431137307019</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="44">
         <v>1.0290865557569501E-2</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="61">
         <v>8.70135228415687E-2</v>
       </c>
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>0.362600398731179</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>0.29813747807272051</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="45">
         <v>1.7737420230970299E-2</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="60">
         <v>6.7169170722953697E-2</v>
       </c>
       <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>-0.3522960440065947</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <v>-0.37700393844585628</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="46">
         <v>2.21877356247113E-2</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="54">
         <v>1.2448974568196301E-2</v>
       </c>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>0.33013541275526698</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>0.24438648708217151</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="47">
         <v>3.6065399172333999E-2</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="27">
         <v>0.16678582915720319</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>0.32747921348827608</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>0.3370484429092751</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="48">
         <v>3.7863208924659199E-2</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="55">
         <v>3.1021653113081901E-2</v>
       </c>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>0.3208830621259981</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <v>0.35778599547286649</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="49">
         <v>4.3310046009072803E-2</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="46">
         <v>1.9779123534089602E-2</v>
       </c>
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>0.31257575297444329</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>0.35894740071726489</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="50">
         <v>5.1059801522941699E-2</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="45">
         <v>1.93090988303498E-2</v>
       </c>
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>-0.29306352033085908</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="26">
         <v>-0.40033414379574189</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="51">
         <v>7.3669968135166103E-2</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="52">
         <v>6.9151548725863996E-3</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="28">
         <v>0.26982593286162881</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="28">
         <v>0.31491656386503608</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="28">
         <v>0.1123547409265663</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="57">
         <v>4.8955247764224101E-2</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="23">
@@ -1481,7 +1478,7 @@
       <c r="D13" s="23">
         <v>0.12640111374424051</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="53">
         <v>7.2956532922877999E-3</v>
       </c>
       <c r="F13" s="25" t="s">
@@ -1489,94 +1486,94 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="28">
         <v>-0.24455018157045369</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="28">
         <v>-0.30997755993737669</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="28">
         <v>0.1667755620293975</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="58">
         <v>5.3723290982506902E-2</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="28">
         <v>-0.2250771642525087</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="28">
         <v>-0.32501820120360569</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="28">
         <v>0.21353043464389801</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="56">
         <v>3.9700775402616198E-2</v>
       </c>
-      <c r="F15" s="32"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="29">
         <v>-0.20942554051778159</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="29">
         <v>-0.39551611728149211</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="29">
         <v>0.25784975272580968</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="62">
         <v>7.8186434898968992E-3</v>
       </c>
-      <c r="F16" s="33"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="28">
         <v>-6.9241075036134803E-2</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="28">
         <v>-0.29382936376435198</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="28">
         <v>0.762588368906856</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="59">
         <v>6.6543060469132095E-2</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="42">
         <v>5.48044590724081E-2</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="42">
         <v>0.25638425818193089</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="42">
         <v>0.81507762335136802</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="42">
         <v>0.1391351994731275</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1592,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B20D8A-57A7-48F7-BFD3-87485132E59A}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1618,104 +1615,101 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>0.44745353614029171</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.4474535361402916</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
         <v>1.4268712578451E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>-0.29306352033085908</v>
+        <v>0.38472310633835538</v>
       </c>
       <c r="C3">
-        <v>-0.40033414379574189</v>
-      </c>
-      <c r="D3" s="3">
-        <v>7.3669968135166103E-2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6.9151548725863996E-3</v>
+        <v>0.28405431137307019</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1.0290865557569501E-2</v>
+      </c>
+      <c r="E3" s="20">
+        <v>8.70135228415687E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>-0.26237535719668309</v>
+        <v>0.362600398731179</v>
       </c>
       <c r="C4">
-        <v>-0.39812795820732633</v>
-      </c>
-      <c r="D4">
-        <v>0.12640111374424051</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7.2956532922877999E-3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
+        <v>0.29813747807272051</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.7737420230970299E-2</v>
+      </c>
+      <c r="E4" s="17">
+        <v>6.7169170722953697E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.20942554051778159</v>
+        <v>-0.3522960440065947</v>
       </c>
       <c r="C5">
-        <v>-0.39551611728149211</v>
-      </c>
-      <c r="D5">
-        <v>0.25784975272580968</v>
-      </c>
-      <c r="E5" s="4">
-        <v>7.8186434898968992E-3</v>
+        <v>-0.37700393844585628</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.21877356247113E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.2448974568196301E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>-0.3522960440065947</v>
+        <v>0.33013541275526698</v>
       </c>
       <c r="C6">
-        <v>-0.37700393844585628</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.21877356247113E-2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1.2448974568196301E-2</v>
+        <v>0.24438648708217151</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3.6065399172333999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.16678582915720319</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.31257575297444329</v>
+        <v>0.32747921348827608</v>
       </c>
       <c r="C7">
-        <v>0.35894740071726489</v>
-      </c>
-      <c r="D7" s="8">
-        <v>5.1059801522941699E-2</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.93090988303498E-2</v>
+        <v>0.3370484429092751</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3.7863208924659199E-2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3.1021653113081901E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1737,653 +1731,653 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>-0.27353301849495348</v>
+        <v>0.31806119792100512</v>
       </c>
       <c r="C9">
-        <v>-0.35214639939793058</v>
-      </c>
-      <c r="D9">
-        <v>0.10566346800382211</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2.2187812746384299E-2</v>
+        <v>0.2151269190932053</v>
+      </c>
+      <c r="D9" s="10">
+        <v>4.5840133377394801E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.2413592405421362</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.32747921348827608</v>
+        <v>0.31257575297444329</v>
       </c>
       <c r="C10">
-        <v>0.3370484429092751</v>
-      </c>
-      <c r="D10" s="11">
-        <v>3.7863208924659199E-2</v>
-      </c>
-      <c r="E10" s="12">
-        <v>3.1021653113081901E-2</v>
+        <v>0.35894740071726489</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5.1059801522941699E-2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.93090988303498E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
+      <c r="A11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.2250771642525087</v>
+        <v>0.30838029611294548</v>
       </c>
       <c r="C11">
-        <v>-0.32501820120360569</v>
-      </c>
-      <c r="D11">
-        <v>0.21353043464389801</v>
-      </c>
-      <c r="E11" s="13">
-        <v>3.9700775402616198E-2</v>
+        <v>0.30082049630100988</v>
+      </c>
+      <c r="D11" s="15">
+        <v>5.5274446515459499E-2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>6.4162488040420504E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>0.26982593286162881</v>
+        <v>-0.29306352033085908</v>
       </c>
       <c r="C12">
-        <v>0.31491656386503608</v>
-      </c>
-      <c r="D12">
-        <v>0.1123547409265663</v>
-      </c>
-      <c r="E12" s="14">
-        <v>4.8955247764224101E-2</v>
+        <v>-0.40033414379574189</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7.3669968135166103E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6.9151548725863996E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
+      <c r="A13" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.24455018157045369</v>
+        <v>0.28785654795875298</v>
       </c>
       <c r="C13">
-        <v>-0.30997755993737669</v>
-      </c>
-      <c r="D13">
-        <v>0.1667755620293975</v>
-      </c>
-      <c r="E13" s="8">
-        <v>5.3723290982506902E-2</v>
+        <v>0.29650494650530052</v>
+      </c>
+      <c r="D13" s="18">
+        <v>8.1152459281783801E-2</v>
+      </c>
+      <c r="E13" s="17">
+        <v>6.8972120148234298E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>0.30838029611294548</v>
+        <v>-0.27353301849495348</v>
       </c>
       <c r="C14">
-        <v>0.30082049630100988</v>
-      </c>
-      <c r="D14" s="15">
-        <v>5.5274446515459499E-2</v>
-      </c>
-      <c r="E14" s="16">
-        <v>6.4162488040420504E-2</v>
+        <v>-0.35214639939793058</v>
+      </c>
+      <c r="D14">
+        <v>0.10566346800382211</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.2187812746384299E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>-6.9241075036134803E-2</v>
+        <v>0.26982593286162881</v>
       </c>
       <c r="C15">
-        <v>-0.29382936376435198</v>
+        <v>0.31491656386503608</v>
       </c>
       <c r="D15">
-        <v>0.762588368906856</v>
-      </c>
-      <c r="E15" s="16">
-        <v>6.6543060469132095E-2</v>
+        <v>0.1123547409265663</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4.8955247764224101E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
+      <c r="A16" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>0.362600398731179</v>
+        <v>-0.26237535719668309</v>
       </c>
       <c r="C16">
-        <v>0.29813747807272051</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1.7737420230970299E-2</v>
-      </c>
-      <c r="E16" s="17">
-        <v>6.7169170722953697E-2</v>
+        <v>-0.39812795820732633</v>
+      </c>
+      <c r="D16">
+        <v>0.12640111374424051</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7.2956532922877999E-3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B17">
-        <v>-0.16961789513950279</v>
+        <v>0.26189497573305381</v>
       </c>
       <c r="C17">
-        <v>-0.296875456199578</v>
+        <v>0.24057980666614689</v>
       </c>
       <c r="D17">
-        <v>0.36771396127385042</v>
-      </c>
-      <c r="E17" s="17">
-        <v>6.8655586300998897E-2</v>
+        <v>0.12702848883176729</v>
+      </c>
+      <c r="E17">
+        <v>0.17440246644900431</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
+      <c r="A18" t="s">
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>0.28785654795875298</v>
+        <v>-0.24455018157045369</v>
       </c>
       <c r="C18">
-        <v>0.29650494650530052</v>
-      </c>
-      <c r="D18" s="18">
-        <v>8.1152459281783801E-2</v>
-      </c>
-      <c r="E18" s="17">
-        <v>6.8972120148234298E-2</v>
+        <v>-0.30997755993737669</v>
+      </c>
+      <c r="D18">
+        <v>0.1667755620293975</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5.3723290982506902E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
+      <c r="A19" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>0.38472310633835538</v>
+        <v>-0.24367963896199149</v>
       </c>
       <c r="C19">
-        <v>0.28405431137307019</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1.0290865557569501E-2</v>
-      </c>
-      <c r="E19" s="20">
-        <v>8.70135228415687E-2</v>
+        <v>-1.1296916066082199E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.16793491950775541</v>
+      </c>
+      <c r="E19">
+        <v>0.96026989465210721</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
+      <c r="A20" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>0.2028315514097094</v>
+        <v>-0.2311040108554952</v>
       </c>
       <c r="C20">
-        <v>0.27646744567846238</v>
+        <v>-4.49117259974754E-2</v>
       </c>
       <c r="D20">
-        <v>0.27630709428557171</v>
+        <v>0.19794119472977109</v>
       </c>
       <c r="E20">
-        <v>0.1006672020965088</v>
+        <v>0.84206673577569513</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
+      <c r="A21" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="B21">
-        <v>-0.1471242295993426</v>
+        <v>-0.2297272511671567</v>
       </c>
       <c r="C21">
-        <v>-0.27444900057903437</v>
+        <v>-6.1469370538657898E-2</v>
       </c>
       <c r="D21">
-        <v>0.449533178581555</v>
+        <v>0.20069473547312441</v>
       </c>
       <c r="E21">
-        <v>0.1044285443758264</v>
+        <v>0.79363908770991787</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>-9.1617318685450297E-2</v>
+        <v>-0.2250771642525087</v>
       </c>
       <c r="C22">
-        <v>-0.26182789898683262</v>
+        <v>-0.32501820120360569</v>
       </c>
       <c r="D22">
-        <v>0.6735544506633695</v>
-      </c>
-      <c r="E22">
-        <v>0.1187052691231021</v>
+        <v>0.21353043464389801</v>
+      </c>
+      <c r="E22" s="13">
+        <v>3.9700775402616198E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>-5.9502836854476902E-2</v>
+        <v>-0.20942554051778159</v>
       </c>
       <c r="C23">
-        <v>-0.25461456416857747</v>
+        <v>-0.39551611728149211</v>
       </c>
       <c r="D23">
-        <v>0.7982468688416815</v>
-      </c>
-      <c r="E23">
-        <v>0.13349698660773299</v>
+        <v>0.25784975272580968</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7.8186434898968992E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="21">
-        <v>5.48044590724081E-2</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0.25638425818193089</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0.81507762335136802</v>
-      </c>
-      <c r="E24" s="21">
-        <v>0.1391351994731275</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.2028315514097094</v>
+      </c>
+      <c r="C24">
+        <v>0.27646744567846238</v>
+      </c>
+      <c r="D24">
+        <v>0.27630709428557171</v>
+      </c>
+      <c r="E24">
+        <v>0.1006672020965088</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>-0.2009485295811311</v>
+      </c>
+      <c r="C25">
+        <v>-0.23870248351977011</v>
+      </c>
+      <c r="D25">
+        <v>0.28202105231899882</v>
+      </c>
+      <c r="E25">
+        <v>0.17927605093363241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>-0.19491355419627121</v>
+      </c>
+      <c r="C26">
+        <v>-0.1286477258734203</v>
+      </c>
+      <c r="D26">
+        <v>0.29965280311785059</v>
+      </c>
+      <c r="E26">
+        <v>0.52083784272704392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.19447217679598039</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.22197376097536731</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0.30093773489537418</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0.22156674352129729</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>-0.18760344327436901</v>
+      </c>
+      <c r="C28">
+        <v>-0.14802763984641809</v>
+      </c>
+      <c r="D28">
+        <v>0.31826958579397657</v>
+      </c>
+      <c r="E28">
+        <v>0.44733681551252752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>-0.17777520484180651</v>
+      </c>
+      <c r="C29">
+        <v>-3.3560288044587397E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.34568035898297472</v>
+      </c>
+      <c r="E29">
+        <v>0.8827392171243158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>-0.1762306959159799</v>
+      </c>
+      <c r="C30">
+        <v>-0.21977903894307599</v>
+      </c>
+      <c r="D30">
+        <v>0.35065572166975262</v>
+      </c>
+      <c r="E30">
+        <v>0.22760808022591841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>-0.16961789513950279</v>
+      </c>
+      <c r="C31">
+        <v>-0.296875456199578</v>
+      </c>
+      <c r="D31">
+        <v>0.36771396127385042</v>
+      </c>
+      <c r="E31" s="17">
+        <v>6.8655586300998897E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="B32">
         <v>-0.1633734229828234</v>
       </c>
-      <c r="C25">
+      <c r="C32">
         <v>-0.25555571889119227</v>
       </c>
-      <c r="D25">
+      <c r="D32">
         <v>0.39049229867406449</v>
       </c>
-      <c r="E25">
+      <c r="E32">
         <v>0.1406593214882666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>-6.9084567498739397E-2</v>
-      </c>
-      <c r="C26">
-        <v>-0.25106789344458608</v>
-      </c>
-      <c r="D26">
-        <v>0.762588368906856</v>
-      </c>
-      <c r="E26">
-        <v>0.14084157846432169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>0.33013541275526698</v>
-      </c>
-      <c r="C27">
-        <v>0.24438648708217151</v>
-      </c>
-      <c r="D27" s="11">
-        <v>3.6065399172333999E-2</v>
-      </c>
-      <c r="E27">
-        <v>0.16678582915720319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>0.26189497573305381</v>
-      </c>
-      <c r="C28">
-        <v>0.24057980666614689</v>
-      </c>
-      <c r="D28">
-        <v>0.12702848883176729</v>
-      </c>
-      <c r="E28">
-        <v>0.17440246644900431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>-0.2009485295811311</v>
-      </c>
-      <c r="C29">
-        <v>-0.23870248351977011</v>
-      </c>
-      <c r="D29">
-        <v>0.28202105231899882</v>
-      </c>
-      <c r="E29">
-        <v>0.17927605093363241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="21">
-        <v>0.19447217679598039</v>
-      </c>
-      <c r="C30" s="21">
-        <v>0.22197376097536731</v>
-      </c>
-      <c r="D30" s="21">
-        <v>0.30093773489537418</v>
-      </c>
-      <c r="E30" s="21">
-        <v>0.22156674352129729</v>
-      </c>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>-0.1762306959159799</v>
-      </c>
-      <c r="C31">
-        <v>-0.21977903894307599</v>
-      </c>
-      <c r="D31">
-        <v>0.35065572166975262</v>
-      </c>
-      <c r="E31">
-        <v>0.22760808022591841</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>0.31806119792100512</v>
-      </c>
-      <c r="C32">
-        <v>0.2151269190932053</v>
-      </c>
-      <c r="D32" s="10">
-        <v>4.5840133377394801E-2</v>
-      </c>
-      <c r="E32">
-        <v>0.2413592405421362</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>-7.0110179108769999E-4</v>
+        <v>-0.1471242295993426</v>
       </c>
       <c r="C33">
-        <v>0.20558231855704831</v>
+        <v>-0.27444900057903437</v>
       </c>
       <c r="D33">
-        <v>0.99685000418798342</v>
+        <v>0.449533178581555</v>
       </c>
       <c r="E33">
-        <v>0.267376746571102</v>
+        <v>0.1044285443758264</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>35</v>
+      <c r="A34" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="B34">
-        <v>-5.8935568731478302E-2</v>
+        <v>-0.13205392517250841</v>
       </c>
       <c r="C34">
-        <v>-0.19191141544056309</v>
+        <v>-2.2539002927546001E-2</v>
       </c>
       <c r="D34">
-        <v>0.80149625502480237</v>
+        <v>0.50841111393507032</v>
       </c>
       <c r="E34">
-        <v>0.3076400175878683</v>
+        <v>0.92012684458679284</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="21">
-        <v>6.3880367840128405E-2</v>
-      </c>
-      <c r="C35" s="21">
-        <v>0.1864168446026416</v>
-      </c>
-      <c r="D35" s="21">
-        <v>0.78948549060569295</v>
-      </c>
-      <c r="E35" s="21">
-        <v>0.32206631355473991</v>
-      </c>
-      <c r="F35" s="21"/>
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>-9.1617318685450297E-2</v>
+      </c>
+      <c r="C35">
+        <v>-0.26182789898683262</v>
+      </c>
+      <c r="D35">
+        <v>0.6735544506633695</v>
+      </c>
+      <c r="E35">
+        <v>0.1187052691231021</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>37</v>
+      <c r="A36" t="s">
+        <v>49</v>
       </c>
       <c r="B36">
-        <v>2.4164136247810601E-2</v>
+        <v>9.1072651458581899E-2</v>
       </c>
       <c r="C36">
-        <v>0.18093433183763249</v>
+        <v>8.6874235399986399E-2</v>
       </c>
       <c r="D36">
-        <v>0.91487983452438115</v>
+        <v>0.68050971189660814</v>
       </c>
       <c r="E36">
-        <v>0.3374429605080187</v>
+        <v>0.70149857889255884</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B37">
-        <v>-1.79879554943892E-2</v>
+        <v>-8.2994173033192301E-2</v>
       </c>
       <c r="C37">
-        <v>0.1784375003540605</v>
+        <v>-4.7562707806746402E-2</v>
       </c>
       <c r="D37">
-        <v>0.9323955826438608</v>
+        <v>0.71057188005947824</v>
       </c>
       <c r="E37">
-        <v>0.34490814123871838</v>
+        <v>0.83516845087876823</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
+      <c r="A38" t="s">
+        <v>51</v>
       </c>
       <c r="B38">
-        <v>4.5002086474572697E-2</v>
+        <v>-8.1281703331451696E-2</v>
       </c>
       <c r="C38">
-        <v>0.17546800993496439</v>
+        <v>-7.4439667632502704E-2</v>
       </c>
       <c r="D38">
-        <v>0.84206673577569513</v>
+        <v>0.71749280309055241</v>
       </c>
       <c r="E38">
-        <v>0.35293401578511618</v>
+        <v>0.74418288077583616</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B39">
-        <v>-4.4198316305223903E-2</v>
+        <v>-8.1835210109591106E-2</v>
       </c>
       <c r="C39">
-        <v>0.16053151294533441</v>
+        <v>-7.27893324577569E-2</v>
       </c>
       <c r="D39">
-        <v>0.84206673577569513</v>
+        <v>0.7191987613943458</v>
       </c>
       <c r="E39">
-        <v>0.39786577353253672</v>
+        <v>0.75563888026934012</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B40">
-        <v>-1.2473586592051399E-2</v>
+        <v>-8.0471709906651007E-2</v>
       </c>
       <c r="C40">
-        <v>0.1599825162316037</v>
+        <v>-5.88236238833185E-2</v>
       </c>
       <c r="D40">
-        <v>0.95725996745231401</v>
+        <v>0.7191987613943458</v>
       </c>
       <c r="E40">
-        <v>0.39943773757532292</v>
+        <v>0.79921990893695816</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>42</v>
+      <c r="A41" t="s">
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>2.9031784232339802E-2</v>
+        <v>-6.9241075036134803E-2</v>
       </c>
       <c r="C41">
-        <v>0.1567693593211846</v>
+        <v>-0.29382936376435198</v>
       </c>
       <c r="D41">
-        <v>0.89714969220817786</v>
-      </c>
-      <c r="E41">
-        <v>0.4094770228173954</v>
+        <v>0.762588368906856</v>
+      </c>
+      <c r="E41" s="16">
+        <v>6.6543060469132095E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>-0.18760344327436901</v>
+        <v>-6.9084567498739397E-2</v>
       </c>
       <c r="C42">
-        <v>-0.14802763984641809</v>
+        <v>-0.25106789344458608</v>
       </c>
       <c r="D42">
-        <v>0.31826958579397657</v>
+        <v>0.762588368906856</v>
       </c>
       <c r="E42">
-        <v>0.44733681551252752</v>
+        <v>0.14084157846432169</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>1.6621758732683099E-2</v>
+        <v>-6.9142659939640305E-2</v>
       </c>
       <c r="C43">
-        <v>0.13700852838445371</v>
+        <v>-7.6203323605386106E-2</v>
       </c>
       <c r="D43">
-        <v>0.93879168175744498</v>
+        <v>0.762588368906856</v>
       </c>
       <c r="E43">
-        <v>0.4875475758226957</v>
+        <v>0.73698516508319178</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>5.32183885793844E-2</v>
-      </c>
-      <c r="C44">
-        <v>0.1311669113921459</v>
-      </c>
-      <c r="D44">
-        <v>0.81890955272402943</v>
-      </c>
-      <c r="E44">
-        <v>0.5119307167536149</v>
-      </c>
+      <c r="A44" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="21">
+        <v>6.3880367840128405E-2</v>
+      </c>
+      <c r="C44" s="21">
+        <v>0.1864168446026416</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0.78948549060569295</v>
+      </c>
+      <c r="E44" s="21">
+        <v>0.32206631355473991</v>
+      </c>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
-        <v>46</v>
+      <c r="A45" t="s">
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>-0.19491355419627121</v>
+        <v>-5.9502836854476902E-2</v>
       </c>
       <c r="C45">
-        <v>-0.1286477258734203</v>
+        <v>-0.25461456416857747</v>
       </c>
       <c r="D45">
-        <v>0.29965280311785059</v>
+        <v>0.7982468688416815</v>
       </c>
       <c r="E45">
-        <v>0.52083784272704392</v>
+        <v>0.13349698660773299</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>47</v>
+      <c r="A46" t="s">
+        <v>35</v>
       </c>
       <c r="B46">
-        <v>-2.4988796960537699E-2</v>
+        <v>-5.8935568731478302E-2</v>
       </c>
       <c r="C46">
-        <v>0.1077458892094018</v>
+        <v>-0.19191141544056309</v>
       </c>
       <c r="D46">
-        <v>0.91125032048850918</v>
+        <v>0.80149625502480237</v>
       </c>
       <c r="E46">
-        <v>0.61458632841673233</v>
+        <v>0.3076400175878683</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2404,242 +2398,249 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48">
-        <v>9.1072651458581899E-2</v>
-      </c>
-      <c r="C48">
-        <v>8.6874235399986399E-2</v>
-      </c>
-      <c r="D48">
-        <v>0.68050971189660814</v>
-      </c>
-      <c r="E48">
-        <v>0.70149857889255884</v>
+      <c r="A48" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="21">
+        <v>5.48044590724081E-2</v>
+      </c>
+      <c r="C48" s="21">
+        <v>0.25638425818193089</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0.81507762335136802</v>
+      </c>
+      <c r="E48" s="21">
+        <v>0.1391351994731275</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>50</v>
+      <c r="A49" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>-6.9142659939640305E-2</v>
+        <v>5.32183885793844E-2</v>
       </c>
       <c r="C49">
-        <v>-7.6203323605386106E-2</v>
+        <v>0.1311669113921459</v>
       </c>
       <c r="D49">
-        <v>0.762588368906856</v>
+        <v>0.81890955272402943</v>
       </c>
       <c r="E49">
-        <v>0.73698516508319178</v>
+        <v>0.5119307167536149</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>51</v>
+      <c r="A50" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-8.1281703331451696E-2</v>
+        <v>5.2617996228582799E-2</v>
       </c>
       <c r="C50">
-        <v>-7.4439667632502704E-2</v>
+        <v>2.2142339616045701E-2</v>
       </c>
       <c r="D50">
-        <v>0.71749280309055241</v>
+        <v>0.81991293941588295</v>
       </c>
       <c r="E50">
-        <v>0.74418288077583616</v>
+        <v>0.92038870080396284</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>52</v>
+      <c r="A51" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B51">
-        <v>-8.1835210109591106E-2</v>
+        <v>4.5002086474572697E-2</v>
       </c>
       <c r="C51">
-        <v>-7.27893324577569E-2</v>
+        <v>0.17546800993496439</v>
       </c>
       <c r="D51">
-        <v>0.7191987613943458</v>
+        <v>0.84206673577569513</v>
       </c>
       <c r="E51">
-        <v>0.75563888026934012</v>
+        <v>0.35293401578511618</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
-        <v>53</v>
+      <c r="A52" t="s">
+        <v>40</v>
       </c>
       <c r="B52">
-        <v>-0.2297272511671567</v>
+        <v>-4.4198316305223903E-2</v>
       </c>
       <c r="C52">
-        <v>-6.1469370538657898E-2</v>
+        <v>0.16053151294533441</v>
       </c>
       <c r="D52">
-        <v>0.20069473547312441</v>
+        <v>0.84206673577569513</v>
       </c>
       <c r="E52">
-        <v>0.79363908770991787</v>
+        <v>0.39786577353253672</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>-8.0471709906651007E-2</v>
+        <v>-3.0354985439904801E-2</v>
       </c>
       <c r="C53">
-        <v>-5.88236238833185E-2</v>
+        <v>-5.4119444894634203E-2</v>
       </c>
       <c r="D53">
-        <v>0.7191987613943458</v>
+        <v>0.89474349404386622</v>
       </c>
       <c r="E53">
-        <v>0.79921990893695816</v>
+        <v>0.81554026497951349</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>55</v>
+      <c r="A54" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B54">
-        <v>-3.0354985439904801E-2</v>
+        <v>2.9031784232339802E-2</v>
       </c>
       <c r="C54">
-        <v>-5.4119444894634203E-2</v>
+        <v>0.1567693593211846</v>
       </c>
       <c r="D54">
-        <v>0.89474349404386622</v>
+        <v>0.89714969220817786</v>
       </c>
       <c r="E54">
-        <v>0.81554026497951349</v>
+        <v>0.4094770228173954</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>56</v>
+      <c r="A55" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B55">
-        <v>-8.2994173033192301E-2</v>
+        <v>-2.4988796960537699E-2</v>
       </c>
       <c r="C55">
-        <v>-4.7562707806746402E-2</v>
+        <v>0.1077458892094018</v>
       </c>
       <c r="D55">
-        <v>0.71057188005947824</v>
+        <v>0.91125032048850918</v>
       </c>
       <c r="E55">
-        <v>0.83516845087876823</v>
+        <v>0.61458632841673233</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
-        <v>57</v>
+      <c r="A56" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B56">
-        <v>-0.2311040108554952</v>
+        <v>2.4164136247810601E-2</v>
       </c>
       <c r="C56">
-        <v>-4.49117259974754E-2</v>
+        <v>0.18093433183763249</v>
       </c>
       <c r="D56">
-        <v>0.19794119472977109</v>
+        <v>0.91487983452438115</v>
       </c>
       <c r="E56">
-        <v>0.84206673577569513</v>
+        <v>0.3374429605080187</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
-        <v>58</v>
+      <c r="A57" t="s">
+        <v>38</v>
       </c>
       <c r="B57">
-        <v>-0.17777520484180651</v>
+        <v>-1.79879554943892E-2</v>
       </c>
       <c r="C57">
-        <v>-3.3560288044587397E-2</v>
+        <v>0.1784375003540605</v>
       </c>
       <c r="D57">
-        <v>0.34568035898297472</v>
+        <v>0.9323955826438608</v>
       </c>
       <c r="E57">
-        <v>0.8827392171243158</v>
+        <v>0.34490814123871838</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
-        <v>59</v>
+      <c r="A58" t="s">
+        <v>44</v>
       </c>
       <c r="B58">
-        <v>-0.13205392517250841</v>
+        <v>1.6621758732683099E-2</v>
       </c>
       <c r="C58">
-        <v>-2.2539002927546001E-2</v>
+        <v>0.13700852838445371</v>
       </c>
       <c r="D58">
-        <v>0.50841111393507032</v>
+        <v>0.93879168175744498</v>
       </c>
       <c r="E58">
-        <v>0.92012684458679284</v>
+        <v>0.4875475758226957</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>60</v>
+      <c r="A59" t="s">
+        <v>41</v>
       </c>
       <c r="B59">
-        <v>5.2617996228582799E-2</v>
+        <v>-1.2473586592051399E-2</v>
       </c>
       <c r="C59">
-        <v>2.2142339616045701E-2</v>
+        <v>0.1599825162316037</v>
       </c>
       <c r="D59">
-        <v>0.81991293941588295</v>
+        <v>0.95725996745231401</v>
       </c>
       <c r="E59">
-        <v>0.92038870080396284</v>
+        <v>0.39943773757532292</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
-        <v>61</v>
+      <c r="A60" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B60">
-        <v>-0.24367963896199149</v>
+        <v>-7.0110179108769999E-4</v>
       </c>
       <c r="C60">
-        <v>-1.1296916066082199E-2</v>
+        <v>0.20558231855704831</v>
       </c>
       <c r="D60">
-        <v>0.16793491950775541</v>
+        <v>0.99685000418798342</v>
       </c>
       <c r="E60">
-        <v>0.96026989465210721</v>
+        <v>0.267376746571102</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
         <v>1</v>
       </c>
-      <c r="B61">
-        <v>0.44745353614029171</v>
-      </c>
       <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
+        <v>0.4474535361402916</v>
+      </c>
+      <c r="E61" s="2">
         <v>1.4268712578451E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{A1B20D8A-57A7-48F7-BFD3-87485132E59A}"/>
+  <autoFilter ref="A1:F1" xr:uid="{A1B20D8A-57A7-48F7-BFD3-87485132E59A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>